--- a/legislator/property/output/normal/陳淑慧_2012-04-27_財產申報表_tmpe56a1.xlsx
+++ b/legislator/property/output/normal/陳淑慧_2012-04-27_財產申報表_tmpe56a1.xlsx
@@ -16,186 +16,207 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="126">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺南市安南區神榕段0459-0000 地號 '</t>
-  </si>
-  <si>
-    <t>臺南市安南區神榕段0465-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市安南區神榕段0466-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市安南區神榕段0488-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市安南區神榕段0995-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市安南區神榕段0996-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市安南區神榕段1002-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市安南區神榕段1002-0001 地號</t>
-  </si>
-  <si>
-    <t>臺南市安南區神榕段1071-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市安南區神榕段1157-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市安南區神榕段1158-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市安南區神榕段1177-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市安南區神榕段1178-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市安南區神榕段1179-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市安南區神榕段1180-0000</t>
-  </si>
-  <si>
-    <t>臺南市安南區神榕段1003-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市安南區神榕段1003-0001 地號</t>
-  </si>
-  <si>
-    <t>臺南市安南區神榕段1077-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市安南區神榕段1007-0001 地號</t>
-  </si>
-  <si>
-    <t>臺南市安南區海佃段1345-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市北區自強段0449 - 0000地 號</t>
-  </si>
-  <si>
-    <t>臺南市北區康祥段0299-0000地 號</t>
-  </si>
-  <si>
-    <t>臺南市北區康祥段0323-0000地 號</t>
-  </si>
-  <si>
-    <t>臺南市安南區城南段1015-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市安南區城南段1015-0001 地號</t>
-  </si>
-  <si>
-    <t>臺南市安南區城南段1015-0002 地號</t>
-  </si>
-  <si>
-    <t>臺南市安南區城南段1015-0003 地號</t>
-  </si>
-  <si>
-    <t>臺南市安南區城南段1015-0004 地號</t>
-  </si>
-  <si>
-    <t>臺南市中西區城光段0109-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市中西區城光段0171 -0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市中西區城光段0182-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市新化區新東段0548-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市新化區新東段0556-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市新化區新東段0617-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市永康區信義段0416-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市永康區信義段0659-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市永康區信義段0660-0000 地號 .</t>
-  </si>
-  <si>
-    <t>臺南市永康區信義段0668-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市永康區信義段0673-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市永康區信義段0674-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市永康區信義段0685-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市永康區信義段0693-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市永康區信義段0710-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市永康區信義段0737-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市永康區信義段0751 -0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市永康區信義段0823-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市永康區信義段0824-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市永康區信義段0825-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市永康區信義段0834-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市永康區信義段0835-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市永康區信義段0839-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市永康區信義段0841 -0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市永康區永和段0008-0000 地號</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="136">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺南市安南區神榕段04590000地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區神榕段04650000地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區神榕段04660000地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區神榕段04880000地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區神榕段09950000地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區神榕段09960000地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區神榕段10020000地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區神榕段10020001地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區神榕段10710000地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區神榕段11570000地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區神榕段11580000地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區神榕段11770000地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區神榕段11780000地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區神榕段11790000地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區神榕段11800000</t>
+  </si>
+  <si>
+    <t>臺南市安南區神榕段10030000地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區神榕段10030001地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區神榕段10770000地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區神榕段10070001地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區海佃段13450000地號</t>
+  </si>
+  <si>
+    <t>臺南市北區自強段04490000地號</t>
+  </si>
+  <si>
+    <t>臺南市北區康祥段02990000地號</t>
+  </si>
+  <si>
+    <t>臺南市北區康祥段03230000地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區城南段10150000地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區城南段10150001地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區城南段10150002地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區城南段10150003地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區城南段10150004地號</t>
+  </si>
+  <si>
+    <t>臺南市中西區城光段01090000地號</t>
+  </si>
+  <si>
+    <t>臺南市中西區城光段01710000地號</t>
+  </si>
+  <si>
+    <t>臺南市中西區城光段01820000地號</t>
+  </si>
+  <si>
+    <t>臺南市新化區新東段05480000地號</t>
+  </si>
+  <si>
+    <t>臺南市新化區新東段05560000地號</t>
+  </si>
+  <si>
+    <t>臺南市新化區新東段06170000地號</t>
+  </si>
+  <si>
+    <t>臺南市永康區信義段04160000地號</t>
+  </si>
+  <si>
+    <t>臺南市永康區信義段06590000地號</t>
+  </si>
+  <si>
+    <t>臺南市永康區信義段06600000地號.</t>
+  </si>
+  <si>
+    <t>臺南市永康區信義段06680000地號</t>
+  </si>
+  <si>
+    <t>臺南市永康區信義段06730000地號</t>
+  </si>
+  <si>
+    <t>臺南市永康區信義段06740000地號</t>
+  </si>
+  <si>
+    <t>臺南市永康區信義段06850000地號</t>
+  </si>
+  <si>
+    <t>臺南市永康區信義段06930000地號</t>
+  </si>
+  <si>
+    <t>臺南市永康區信義段07100000地號</t>
+  </si>
+  <si>
+    <t>臺南市永康區信義段07370000地號</t>
+  </si>
+  <si>
+    <t>臺南市永康區信義段07510000地號</t>
+  </si>
+  <si>
+    <t>臺南市永康區信義段08230000地號</t>
+  </si>
+  <si>
+    <t>臺南市永康區信義段08240000地號</t>
+  </si>
+  <si>
+    <t>臺南市永康區信義段08250000地號</t>
+  </si>
+  <si>
+    <t>臺南市永康區信義段08340000地號</t>
+  </si>
+  <si>
+    <t>臺南市永康區信義段08350000地號</t>
+  </si>
+  <si>
+    <t>臺南市永康區信義段08390000地號</t>
+  </si>
+  <si>
+    <t>臺南市永康區信義段08410000地號</t>
+  </si>
+  <si>
+    <t>臺南市永康區永和段00080000地號</t>
   </si>
   <si>
     <t>24分之23</t>
@@ -204,10 +225,10 @@
     <t>300分之19</t>
   </si>
   <si>
-    <t>300分之 221</t>
-  </si>
-  <si>
-    <t>10000分之 3029</t>
+    <t>300分之221</t>
+  </si>
+  <si>
+    <t>10000分之3029</t>
   </si>
   <si>
     <t>10分之4</t>
@@ -222,82 +243,79 @@
     <t>3分之2</t>
   </si>
   <si>
-    <t>全部-</t>
-  </si>
-  <si>
     <t>陳淑慧</t>
   </si>
   <si>
     <t>林南生</t>
   </si>
   <si>
-    <t>85年06月 28 H</t>
-  </si>
-  <si>
-    <t>85年06月 28日</t>
-  </si>
-  <si>
-    <t>85年06月 28闩</t>
-  </si>
-  <si>
-    <t>85年06月 28 R</t>
+    <t>85年06月28H</t>
+  </si>
+  <si>
+    <t>85年06月28日</t>
+  </si>
+  <si>
+    <t>85年06月28闩</t>
+  </si>
+  <si>
+    <t>85年06月28R</t>
   </si>
   <si>
     <t>85年06月</t>
   </si>
   <si>
-    <t>85年11月 07日</t>
-  </si>
-  <si>
-    <t>78年11月 08日</t>
-  </si>
-  <si>
-    <t>80年02月 26日</t>
-  </si>
-  <si>
-    <t>80年02月 26 H</t>
-  </si>
-  <si>
-    <t>85年02月 02日</t>
-  </si>
-  <si>
-    <t>74年10月 17曰</t>
-  </si>
-  <si>
-    <t>74年10月 17日</t>
-  </si>
-  <si>
-    <t>81年10月 07日</t>
-  </si>
-  <si>
-    <t>81年09月 08日</t>
-  </si>
-  <si>
-    <t>78年03月 24日</t>
-  </si>
-  <si>
-    <t>77年08月 17曰</t>
-  </si>
-  <si>
-    <t>77年08月 17日</t>
-  </si>
-  <si>
-    <t>77年08月 17闩</t>
-  </si>
-  <si>
-    <t>77年08月 09日</t>
-  </si>
-  <si>
-    <t>77年08月 09闩</t>
-  </si>
-  <si>
-    <t>77年08月 17 H</t>
+    <t>85年11月07日</t>
+  </si>
+  <si>
+    <t>78年11月08日</t>
+  </si>
+  <si>
+    <t>80年02月26日</t>
+  </si>
+  <si>
+    <t>80年02月26H</t>
+  </si>
+  <si>
+    <t>85年02月02日</t>
+  </si>
+  <si>
+    <t>74年10月17曰</t>
+  </si>
+  <si>
+    <t>74年10月17日</t>
+  </si>
+  <si>
+    <t>81年10月07日</t>
+  </si>
+  <si>
+    <t>81年09月08日</t>
+  </si>
+  <si>
+    <t>78年03月24日</t>
+  </si>
+  <si>
+    <t>77年08月17曰</t>
+  </si>
+  <si>
+    <t>77年08月17日</t>
+  </si>
+  <si>
+    <t>77年08月17闩</t>
+  </si>
+  <si>
+    <t>77年08月09日</t>
+  </si>
+  <si>
+    <t>77年08月09闩</t>
+  </si>
+  <si>
+    <t>77年08月17H</t>
   </si>
   <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>t-n-t 貝賣</t>
+    <t>tnt貝賣</t>
   </si>
   <si>
     <t>貿賣</t>
@@ -312,10 +330,22 @@
     <t>(超堝艽年)</t>
   </si>
   <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-27</t>
+  </si>
+  <si>
+    <t>tmpe56a1</t>
+  </si>
+  <si>
     <t>財產種類</t>
   </si>
   <si>
-    <t>項/</t>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
@@ -324,7 +354,7 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>保 險公司</t>
+    <t>保險公司</t>
   </si>
   <si>
     <t>國泰人壽</t>
@@ -336,7 +366,7 @@
     <t>保誠人壽</t>
   </si>
   <si>
-    <t>保 險名稱</t>
+    <t>保險名稱</t>
   </si>
   <si>
     <t>保本111終身</t>
@@ -354,7 +384,7 @@
     <t>要保人</t>
   </si>
   <si>
-    <t>備 註</t>
+    <t>備註</t>
   </si>
   <si>
     <t>躉繳</t>
@@ -381,19 +411,19 @@
     <t>借款</t>
   </si>
   <si>
-    <t>曾洋右等七人 臺南市中西區中正路</t>
-  </si>
-  <si>
-    <t>元大商業銀行 臺南市中西區民生路</t>
-  </si>
-  <si>
-    <t>安泰商業銀行 臺南市中西區中山路</t>
-  </si>
-  <si>
-    <t>94年08月 02日</t>
-  </si>
-  <si>
-    <t>96年10月 15日</t>
+    <t>曾洋右等七人臺南市中西區中正路</t>
+  </si>
+  <si>
+    <t>元大商業銀行臺南市中西區民生路</t>
+  </si>
+  <si>
+    <t>安泰商業銀行臺南市中西區中山路</t>
+  </si>
+  <si>
+    <t>94年08月02日</t>
+  </si>
+  <si>
+    <t>96年10月15日</t>
   </si>
 </sst>
 </file>
@@ -752,13 +782,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,1409 +810,2564 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>16.3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>15.86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>3.59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>0.22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>1.17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>2.88</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>0.59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>1.55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>37.78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>132.09</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>2.43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>67.69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>111.91</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>11.43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O15" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>16.8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O16" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>18.24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O17" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>222.28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O19" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <v>0.02</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O20" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>0.37</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O21" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2">
         <v>4.41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O22" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2">
         <v>437.99</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O23" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2">
         <v>18.01</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O24" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C25" s="2">
         <v>23.2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O25" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C26" s="2">
         <v>1.59</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O26" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2">
         <v>3.57</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O27" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C28" s="2">
         <v>17.36</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O28" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C29" s="2">
         <v>3.31</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O29" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2">
         <v>0.41</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O30" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C31" s="2">
         <v>24.53</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O31" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C32" s="2">
         <v>486.65</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O32" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2">
         <v>481.26</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O33" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2">
         <v>24.89</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O34" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C35" s="2">
         <v>5.37</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O35" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>50</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C36" s="2">
         <v>37.09</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O36" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C37" s="2">
         <v>15.5</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M37" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O37" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C38" s="2">
         <v>114.28</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O38" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C39" s="2">
         <v>55.14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O39" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>55</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C40" s="2">
         <v>205.31</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O40" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>56</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C41" s="2">
         <v>9.62</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O41" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1">
         <v>57</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2">
         <v>7.95</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O42" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1">
         <v>58</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C43" s="2">
         <v>181.79</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M43" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O43" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>59</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2">
         <v>90.21</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M44" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O44" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>60</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C45" s="2">
         <v>283.35</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M45" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O45" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2">
         <v>213.37</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M46" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O46" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1">
         <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2">
         <v>33.34</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M47" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O47" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1">
         <v>63</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C48" s="2">
         <v>24.73</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M48" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O48" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1">
         <v>64</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C49" s="2">
         <v>39.67</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M49" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O49" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1">
         <v>65</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2">
         <v>6.69</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M50" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O50" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1">
         <v>66</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2">
         <v>25.31</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M51" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O51" s="2">
         <v>66</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1">
         <v>67</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2">
         <v>16.06</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M52" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O52" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1">
         <v>68</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2">
         <v>34.63</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M53" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O53" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1">
         <v>69</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2">
         <v>396.51</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M54" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O54" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1">
         <v>70</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2">
         <v>12.86</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M55" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O55" s="2">
         <v>70</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2200,16 +3385,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2217,16 +3402,16 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2234,13 +3419,13 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -2249,13 +3434,13 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -2264,16 +3449,16 @@
         <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2281,16 +3466,16 @@
         <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2308,22 +3493,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2331,22 +3516,22 @@
         <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E2" s="2">
         <v>7423744</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2354,22 +3539,22 @@
         <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2">
         <v>2367290</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2377,22 +3562,22 @@
         <v>153</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E4" s="2">
         <v>3067394</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳淑慧_2012-04-27_財產申報表_tmpe56a1.xlsx
+++ b/legislator/property/output/normal/陳淑慧_2012-04-27_財產申報表_tmpe56a1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="128">
   <si>
     <t>name</t>
   </si>
@@ -66,6 +66,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺南市安南區神榕段04590000地號</t>
+  </si>
+  <si>
     <t>臺南市安南區神榕段04650000地號</t>
   </si>
   <si>
@@ -252,6 +255,9 @@
     <t>林南生</t>
   </si>
   <si>
+    <t>85年06月28H</t>
+  </si>
+  <si>
     <t>85年06月28日</t>
   </si>
   <si>
@@ -259,9 +265,6 @@
   </si>
   <si>
     <t>85年06月28R</t>
-  </si>
-  <si>
-    <t>85年06月28H</t>
   </si>
   <si>
     <t>85年06月</t>
@@ -755,7 +758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -813,1073 +816,1073 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>15.86</v>
+        <v>16.3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M2" s="2">
         <v>1720</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q2" s="2">
-        <v>15.1991666666667</v>
+        <v>15.6208333333333</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>3.59</v>
+        <v>15.86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M3" s="2">
         <v>1720</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q3" s="2">
-        <v>3.44041666666667</v>
+        <v>15.1991666666667</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>0.22</v>
+        <v>3.59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M4" s="2">
         <v>1720</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.210833333333333</v>
+        <v>3.44041666666667</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>1.17</v>
+        <v>0.22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M5" s="2">
         <v>1720</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q5" s="2">
-        <v>1.12125</v>
+        <v>0.210833333333333</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>2.88</v>
+        <v>1.17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" s="2">
         <v>1720</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q6" s="2">
-        <v>2.76</v>
+        <v>1.12125</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>0.59</v>
+        <v>2.88</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M7" s="2">
         <v>1720</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q7" s="2">
-        <v>0.565416666666667</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>1.55</v>
+        <v>0.59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M8" s="2">
         <v>1720</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q8" s="2">
-        <v>1.48541666666667</v>
+        <v>0.565416666666667</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>37.78</v>
+        <v>1.55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>103</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M9" s="2">
         <v>1720</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q9" s="2">
-        <v>36.2058333333333</v>
+        <v>1.48541666666667</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>132.09</v>
+        <v>37.78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M10" s="2">
         <v>1720</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q10" s="2">
-        <v>126.58625</v>
+        <v>36.2058333333333</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>2.43</v>
+        <v>132.09</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M11" s="2">
         <v>1720</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q11" s="2">
-        <v>2.32875</v>
+        <v>126.58625</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>67.69</v>
+        <v>2.43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M12" s="2">
         <v>1720</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q12" s="2">
-        <v>64.8695833333333</v>
+        <v>2.32875</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>111.91</v>
+        <v>67.69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M13" s="2">
         <v>1720</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q13" s="2">
-        <v>107.247083333333</v>
+        <v>64.8695833333333</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>11.43</v>
+        <v>111.91</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M14" s="2">
         <v>1720</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q14" s="2">
-        <v>10.95375</v>
+        <v>107.247083333333</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>16.8</v>
+        <v>11.43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M15" s="2">
         <v>1720</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q15" s="2">
-        <v>16.1</v>
+        <v>10.95375</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>18.24</v>
+        <v>16.8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M16" s="2">
         <v>1720</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O16" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P16" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q16" s="2">
-        <v>17.48</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>0</v>
+        <v>18.24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M17" s="2">
         <v>1720</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O17" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q17" s="2">
-        <v>0</v>
+        <v>17.48</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>222.28</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M18" s="2">
         <v>1720</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O18" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q18" s="2">
-        <v>213.018333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>0.02</v>
+        <v>222.28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M19" s="2">
         <v>1720</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O19" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P19" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q19" s="2">
-        <v>0.0191666666666667</v>
+        <v>213.018333333333</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>0.37</v>
+        <v>0.02</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M20" s="2">
         <v>1720</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O20" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P20" s="2">
-        <v>0.0633333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="Q20" s="2">
-        <v>0.0234333333333333</v>
+        <v>0.0191666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>4.41</v>
+        <v>0.37</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M21" s="2">
         <v>1720</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O21" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P21" s="2">
-        <v>0.736666666666667</v>
+        <v>0.0633333333333333</v>
       </c>
       <c r="Q21" s="2">
-        <v>3.2487</v>
+        <v>0.0234333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="2">
-        <v>437.99</v>
+        <v>4.41</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>71</v>
@@ -1891,54 +1894,54 @@
         <v>84</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M22" s="2">
         <v>1720</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O22" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P22" s="2">
-        <v>0.3029</v>
+        <v>0.736666666666667</v>
       </c>
       <c r="Q22" s="2">
-        <v>132.667171</v>
+        <v>3.2487</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="2">
-        <v>18.01</v>
+        <v>437.99</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>85</v>
@@ -1947,1676 +1950,1729 @@
         <v>100</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M23" s="2">
         <v>1720</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O23" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P23" s="2">
-        <v>0.4</v>
+        <v>0.3029</v>
       </c>
       <c r="Q23" s="2">
-        <v>7.204</v>
+        <v>132.667171</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="2">
-        <v>23.2</v>
+        <v>18.01</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M24" s="2">
         <v>1720</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O24" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P24" s="2">
         <v>0.4</v>
       </c>
       <c r="Q24" s="2">
-        <v>9.28</v>
+        <v>7.204</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="2">
-        <v>1.59</v>
+        <v>23.2</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M25" s="2">
         <v>1720</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O25" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P25" s="2">
-        <v>0.125</v>
+        <v>0.4</v>
       </c>
       <c r="Q25" s="2">
-        <v>0.19875</v>
+        <v>9.28</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="2">
-        <v>3.57</v>
+        <v>1.59</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M26" s="2">
         <v>1720</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O26" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P26" s="2">
         <v>0.125</v>
       </c>
       <c r="Q26" s="2">
-        <v>0.44625</v>
+        <v>0.19875</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="2">
-        <v>17.36</v>
+        <v>3.57</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M27" s="2">
         <v>1720</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O27" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P27" s="2">
         <v>0.125</v>
       </c>
       <c r="Q27" s="2">
-        <v>2.17</v>
+        <v>0.44625</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="2">
-        <v>3.31</v>
+        <v>17.36</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M28" s="2">
         <v>1720</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O28" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P28" s="2">
         <v>0.125</v>
       </c>
       <c r="Q28" s="2">
-        <v>0.41375</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="2">
-        <v>0.41</v>
+        <v>3.31</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M29" s="2">
         <v>1720</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O29" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P29" s="2">
         <v>0.125</v>
       </c>
       <c r="Q29" s="2">
-        <v>0.05125</v>
+        <v>0.41375</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="2">
-        <v>24.53</v>
+        <v>0.41</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M30" s="2">
         <v>1720</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O30" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P30" s="2">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="Q30" s="2">
-        <v>24.53</v>
+        <v>0.05125</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="2">
-        <v>486.65</v>
+        <v>24.53</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M31" s="2">
         <v>1720</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O31" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="2">
         <v>1</v>
       </c>
       <c r="Q31" s="2">
-        <v>486.65</v>
+        <v>24.53</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="2">
-        <v>481.26</v>
+        <v>486.65</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M32" s="2">
         <v>1720</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O32" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P32" s="2">
         <v>1</v>
       </c>
       <c r="Q32" s="2">
-        <v>481.26</v>
+        <v>486.65</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="2">
-        <v>24.89</v>
+        <v>481.26</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M33" s="2">
         <v>1720</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O33" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P33" s="2">
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="2">
-        <v>16.5933333333333</v>
+        <v>481.26</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="2">
-        <v>5.37</v>
+        <v>24.89</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M34" s="2">
         <v>1720</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P34" s="2">
         <v>0.666666666666667</v>
       </c>
       <c r="Q34" s="2">
-        <v>3.58</v>
+        <v>16.5933333333333</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C35" s="2">
-        <v>37.09</v>
+        <v>5.37</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>91</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M35" s="2">
         <v>1720</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P35" s="2">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q35" s="2">
-        <v>37.09</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="2">
-        <v>15.5</v>
+        <v>37.09</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M36" s="2">
         <v>1720</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O36" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P36" s="2">
         <v>1</v>
       </c>
       <c r="Q36" s="2">
-        <v>15.5</v>
+        <v>37.09</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="2">
-        <v>114.28</v>
+        <v>15.5</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M37" s="2">
         <v>1720</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O37" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P37" s="2">
         <v>1</v>
       </c>
       <c r="Q37" s="2">
-        <v>114.28</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="2">
-        <v>55.14</v>
+        <v>114.28</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M38" s="2">
         <v>1720</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O38" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P38" s="2">
         <v>1</v>
       </c>
       <c r="Q38" s="2">
-        <v>55.14</v>
+        <v>114.28</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C39" s="2">
-        <v>205.31</v>
+        <v>55.14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M39" s="2">
         <v>1720</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O39" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P39" s="2">
         <v>1</v>
       </c>
       <c r="Q39" s="2">
-        <v>205.31</v>
+        <v>55.14</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C40" s="2">
-        <v>9.62</v>
+        <v>205.31</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M40" s="2">
         <v>1720</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O40" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P40" s="2">
         <v>1</v>
       </c>
       <c r="Q40" s="2">
-        <v>9.62</v>
+        <v>205.31</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="2">
-        <v>7.95</v>
+        <v>9.62</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M41" s="2">
         <v>1720</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O41" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P41" s="2">
         <v>1</v>
       </c>
       <c r="Q41" s="2">
-        <v>7.95</v>
+        <v>9.62</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C42" s="2">
-        <v>181.79</v>
+        <v>7.95</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M42" s="2">
         <v>1720</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O42" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P42" s="2">
         <v>1</v>
       </c>
       <c r="Q42" s="2">
-        <v>181.79</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C43" s="2">
-        <v>90.21</v>
+        <v>181.79</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M43" s="2">
         <v>1720</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O43" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P43" s="2">
         <v>1</v>
       </c>
       <c r="Q43" s="2">
-        <v>90.21</v>
+        <v>181.79</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C44" s="2">
-        <v>283.35</v>
+        <v>90.21</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M44" s="2">
         <v>1720</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O44" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P44" s="2">
         <v>1</v>
       </c>
       <c r="Q44" s="2">
-        <v>283.35</v>
+        <v>90.21</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="2">
-        <v>213.37</v>
+        <v>283.35</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M45" s="2">
         <v>1720</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O45" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P45" s="2">
         <v>1</v>
       </c>
       <c r="Q45" s="2">
-        <v>213.37</v>
+        <v>283.35</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C46" s="2">
-        <v>33.34</v>
+        <v>213.37</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M46" s="2">
         <v>1720</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O46" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P46" s="2">
         <v>1</v>
       </c>
       <c r="Q46" s="2">
-        <v>33.34</v>
+        <v>213.37</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C47" s="2">
-        <v>24.73</v>
+        <v>33.34</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M47" s="2">
         <v>1720</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O47" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P47" s="2">
         <v>1</v>
       </c>
       <c r="Q47" s="2">
-        <v>24.73</v>
+        <v>33.34</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C48" s="2">
-        <v>39.67</v>
+        <v>24.73</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M48" s="2">
         <v>1720</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O48" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P48" s="2">
         <v>1</v>
       </c>
       <c r="Q48" s="2">
-        <v>39.67</v>
+        <v>24.73</v>
       </c>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="2">
-        <v>6.69</v>
+        <v>39.67</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M49" s="2">
         <v>1720</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O49" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P49" s="2">
         <v>1</v>
       </c>
       <c r="Q49" s="2">
-        <v>6.69</v>
+        <v>39.67</v>
       </c>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C50" s="2">
-        <v>25.31</v>
+        <v>6.69</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M50" s="2">
         <v>1720</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O50" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P50" s="2">
         <v>1</v>
       </c>
       <c r="Q50" s="2">
-        <v>25.31</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="2">
-        <v>16.06</v>
+        <v>25.31</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M51" s="2">
         <v>1720</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O51" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P51" s="2">
         <v>1</v>
       </c>
       <c r="Q51" s="2">
-        <v>16.06</v>
+        <v>25.31</v>
       </c>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C52" s="2">
-        <v>34.63</v>
+        <v>16.06</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M52" s="2">
         <v>1720</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O52" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P52" s="2">
         <v>1</v>
       </c>
       <c r="Q52" s="2">
-        <v>34.63</v>
+        <v>16.06</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C53" s="2">
-        <v>396.51</v>
+        <v>34.63</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M53" s="2">
         <v>1720</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O53" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P53" s="2">
         <v>1</v>
       </c>
       <c r="Q53" s="2">
-        <v>396.51</v>
+        <v>34.63</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C54" s="2">
-        <v>12.86</v>
+        <v>396.51</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M54" s="2">
         <v>1720</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O54" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P54" s="2">
         <v>1</v>
       </c>
       <c r="Q54" s="2">
+        <v>396.51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1">
+        <v>70</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="2">
+        <v>12.86</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M55" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O55" s="2">
+        <v>70</v>
+      </c>
+      <c r="P55" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="2">
         <v>12.86</v>
       </c>
     </row>
@@ -3627,7 +3683,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3635,51 +3691,53 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>114</v>
@@ -3688,15 +3746,13 @@
         <v>118</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>120</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>115</v>
@@ -3705,10 +3761,27 @@
         <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>129</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>120</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3718,7 +3791,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3726,68 +3799,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1">
         <v>7423744</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="2">
+        <v>7423744</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2367290</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F3" s="2">
+        <v>2367290</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>153</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="2">
         <v>3067394</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>123</v>
+      <c r="G4" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳淑慧_2012-04-27_財產申報表_tmpe56a1.xlsx
+++ b/legislator/property/output/normal/陳淑慧_2012-04-27_財產申報表_tmpe56a1.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
-    <sheet name="具有相當價值之財產" sheetId="2" r:id="rId2"/>
+    <sheet name="保險" sheetId="2" r:id="rId2"/>
     <sheet name="債務" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="124">
   <si>
     <t>name</t>
   </si>
@@ -348,28 +348,16 @@
     <t>tmpe56a1</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>保本111終身</t>
+  </si>
+  <si>
     <t>紐約國際人壽</t>
   </si>
   <si>
     <t>保誠人壽</t>
-  </si>
-  <si>
-    <t>保本111終身</t>
   </si>
   <si>
     <t>美意年年終生壽險</t>
@@ -3683,7 +3671,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3697,15 +3685,13 @@
         <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>110</v>
@@ -3714,21 +3700,19 @@
         <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>113</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>77</v>
@@ -3737,51 +3721,36 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>129</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3799,22 +3768,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1">
         <v>7423744</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3822,22 +3791,22 @@
         <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F2" s="2">
         <v>7423744</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3845,22 +3814,22 @@
         <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F3" s="2">
         <v>2367290</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3868,22 +3837,22 @@
         <v>153</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F4" s="2">
         <v>3067394</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳淑慧_2012-04-27_財產申報表_tmpe56a1.xlsx
+++ b/legislator/property/output/normal/陳淑慧_2012-04-27_財產申報表_tmpe56a1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="128">
   <si>
     <t>name</t>
   </si>
@@ -348,18 +348,21 @@
     <t>tmpe56a1</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>紐約國際人壽</t>
+  </si>
+  <si>
+    <t>保誠人壽</t>
+  </si>
+  <si>
     <t>保本111終身</t>
   </si>
   <si>
-    <t>紐約國際人壽</t>
-  </si>
-  <si>
-    <t>保誠人壽</t>
-  </si>
-  <si>
     <t>美意年年終生壽險</t>
   </si>
   <si>
@@ -369,7 +372,13 @@
     <t>築夢人生</t>
   </si>
   <si>
-    <t>躉繳</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>借款</t>
@@ -378,16 +387,19 @@
     <t>曾洋右等七人臺南市中西區中正路</t>
   </si>
   <si>
+    <t>元大商業銀行臺南市中西區民生路</t>
+  </si>
+  <si>
+    <t>安泰商業銀行臺南市中西區中山路</t>
+  </si>
+  <si>
     <t>94年08月02日</t>
   </si>
   <si>
-    <t>元大商業銀行臺南市中西區民生路</t>
-  </si>
-  <si>
-    <t>安泰商業銀行臺南市中西區中山路</t>
-  </si>
-  <si>
     <t>96年10月15日</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -3671,55 +3683,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1720</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1720</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>128</v>
       </c>
@@ -3727,16 +3799,34 @@
         <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1720</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>129</v>
       </c>
@@ -3744,13 +3834,31 @@
         <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1720</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="2">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3760,99 +3868,183 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="1">
-        <v>7423744</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="2">
+        <v>122</v>
+      </c>
+      <c r="E2" s="2">
         <v>7423744</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>121</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1720</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2367290</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="2">
-        <v>2367290</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1720</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>153</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="2">
+        <v>124</v>
+      </c>
+      <c r="E4" s="2">
         <v>3067394</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1720</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" s="2">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
